--- a/Docs/Intro.xlsx
+++ b/Docs/Intro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProject\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F3CAF-BA4C-44FB-9072-CE1B086D0201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Thông tin chung</t>
+  </si>
+  <si>
+    <t>Mục</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Tên đề tài</t>
+  </si>
+  <si>
+    <t>Hệ thống chia sẻ công thức nấu ăn có gợi ý AI và tính calo</t>
+  </si>
+  <si>
+    <t>Sinh viên thực hiện</t>
+  </si>
+  <si>
+    <t>Phan Văn Tỏ - mssv: 0230467</t>
+  </si>
+  <si>
+    <t>Giảng viên hướng dẫn</t>
+  </si>
+  <si>
+    <t>ThS. Lê Đức Quang</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>Mô tả đề tài</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống cho phép người dùng chia sẻ công thức nấu ăn, AI gợi ý món ăn từ nguyên liệu và tính calo.</t>
+  </si>
+  <si>
+    <t>Giúp người dùng dễ dàng nấu ăn khoa học, tiết kiệm chi phí và kiểm soát dinh dưỡng</t>
+  </si>
+  <si>
+    <t>Xây dựng webapp gồm các chức năng: đăng ký, đăng nhập, đăng công thức, tìm kiếm công thức, gợi ý món ăn từ nguyên liệu, tính calo.</t>
+  </si>
+  <si>
+    <t>Frontend: ReactJS, Backend: Spring Boot, DB: MySQL, AI: Gemini API</t>
+  </si>
+  <si>
+    <t>Ý nghĩa thực tiễn</t>
+  </si>
+  <si>
+    <t>Phạm vi</t>
+  </si>
+  <si>
+    <t>Công nghệ sử dụng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +429,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="110.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>